--- a/oddballStimuliList.xlsx
+++ b/oddballStimuliList.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>stimuli_0</t>
   </si>
@@ -22,6 +22,9 @@
     <t>trigger</t>
   </si>
   <si>
+    <t>numberOddballs</t>
+  </si>
+  <si>
     <t>oddballStimuli/vibraphonePlaceholder1.wav</t>
   </si>
   <si>
@@ -31,6 +34,9 @@
     <t>oddballStimuli/trigger_vibraphonePlaceholder1.wav</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>oddballStimuli/Harmonica1.wav</t>
   </si>
   <si>
@@ -38,6 +44,9 @@
   </si>
   <si>
     <t>oddballStimuli/trigger_Harmonica1.wav</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>oddballStimuli/Harmonica2.wav</t>
@@ -138,12 +147,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -152,11 +167,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -376,7 +397,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="52.63"/>
-    <col customWidth="1" min="3" max="3" width="35.5"/>
+    <col customWidth="1" min="3" max="3" width="59.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -389,170 +410,218 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
